--- a/data_structures/usages.xlsx
+++ b/data_structures/usages.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24640" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24680" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>Data Structure</t>
+  </si>
+  <si>
+    <t>Random Access</t>
   </si>
   <si>
     <t>Frequent Insertions and Deletions</t>
@@ -93,40 +96,37 @@
     <t>LinkedHashMap</t>
   </si>
   <si>
-    <t>Problem</t>
-  </si>
-  <si>
-    <t>Random Access Needed</t>
-  </si>
-  <si>
     <t>Order Matters</t>
   </si>
   <si>
-    <t>Elements need to be traversed</t>
-  </si>
-  <si>
     <t>ADDITION</t>
   </si>
   <si>
     <t>REMOVING</t>
   </si>
   <si>
-    <t xml:space="preserve">   -HashMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -LinkedHashMap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -Stack (LIFO)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -Queue</t>
+    <t xml:space="preserve">   HashMap</t>
   </si>
   <si>
     <t>Unknown Data size + Order Matters</t>
   </si>
   <si>
     <t>1. If size is known</t>
+  </si>
+  <si>
+    <t>Requirements</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   LinkedHashMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Stack (LIFO)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Queue</t>
   </si>
 </sst>
 </file>
@@ -179,7 +179,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,94 +204,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -305,27 +223,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -665,209 +582,209 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="2"/>
-    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1">
+    <row r="1" spans="1:6" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="2" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1">
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1">
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1">
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="2" customFormat="1">
+      <c r="B6" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="16">
+      <c r="A7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="2" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="2" customFormat="1">
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1">
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1">
+      <c r="B13" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1">
+      <c r="A14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" s="4" customFormat="1">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1">
+      <c r="B18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="4" customFormat="1">
+      <c r="B19" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="4" customFormat="1">
+      <c r="B20" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="4" customFormat="1">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="17" customHeight="1">
+      <c r="B24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="3" customFormat="1">
+      <c r="A26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1">
-      <c r="A2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="5" customFormat="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="5" customFormat="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="4" customFormat="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="16">
-      <c r="A7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="10" customFormat="1">
-      <c r="A8" s="11"/>
-      <c r="B8" s="9" t="s">
+      <c r="G26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="5" customFormat="1">
-      <c r="A9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="12" t="s">
+    <row r="28" spans="1:8">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="10" customFormat="1">
-      <c r="A11" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="10" customFormat="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="10" customFormat="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="5" customFormat="1">
-      <c r="A14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="5" customFormat="1">
-      <c r="B15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="5" customFormat="1"/>
-    <row r="17" spans="1:8" s="15" customFormat="1">
-      <c r="A17" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="15" customFormat="1">
-      <c r="B18" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1">
-      <c r="B19" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1">
-      <c r="B20" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1"/>
-    <row r="22" spans="1:8" s="5" customFormat="1">
-      <c r="A22" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="17" customHeight="1">
-      <c r="B23" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1"/>
-    <row r="26" spans="1:8" s="1" customFormat="1">
-      <c r="A26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data_structures/usages.xlsx
+++ b/data_structures/usages.xlsx
@@ -19,12 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Data Structure</t>
-  </si>
-  <si>
-    <t>Random Access</t>
   </si>
   <si>
     <t>Frequent Insertions and Deletions</t>
@@ -127,6 +124,12 @@
   </si>
   <si>
     <t xml:space="preserve">   Queue</t>
+  </si>
+  <si>
+    <t>Random Access + known data size</t>
+  </si>
+  <si>
+    <t>Random Access + unknown data size</t>
   </si>
 </sst>
 </file>
@@ -179,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,24 +191,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -213,8 +210,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -222,35 +234,31 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -580,211 +588,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="1"/>
-    <col min="7" max="7" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="30.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="2"/>
+    <col min="7" max="7" width="13.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="4" customFormat="1">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="2" customFormat="1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="B23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="2" customFormat="1">
-      <c r="B3" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="2" customFormat="1">
-      <c r="B4" s="5" t="s">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="B24" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" customHeight="1">
+      <c r="B28" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" customHeight="1">
+      <c r="B29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="4" customFormat="1">
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="2" customFormat="1">
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="2" customFormat="1">
-      <c r="B6" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="4" customFormat="1" ht="16">
-      <c r="A7" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="4" customFormat="1">
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="2" customFormat="1">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="2" customFormat="1">
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1">
-      <c r="A11" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1">
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="4" customFormat="1">
-      <c r="B13" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1">
-      <c r="A14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1">
-      <c r="B15" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
-      <c r="B16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" s="4" customFormat="1">
-      <c r="A17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1">
-      <c r="B18" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="4" customFormat="1">
-      <c r="B19" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="4" customFormat="1">
-      <c r="B20" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="4" customFormat="1">
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:8" s="2" customFormat="1">
-      <c r="A22" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" ht="17" customHeight="1">
-      <c r="B23" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="17" customHeight="1">
-      <c r="B24" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="3" customFormat="1">
-      <c r="A26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
